--- a/Project1/s02_1.xlsx
+++ b/Project1/s02_1.xlsx
@@ -386,2382 +386,2382 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>140457110.082614</v>
+        <v>23648060.99012177</v>
       </c>
       <c r="B2">
-        <v>49213877.60005963</v>
+        <v>-8651089.239631444</v>
       </c>
       <c r="C2">
-        <v>231700342.5651684</v>
+        <v>55947211.21987498</v>
       </c>
       <c r="D2">
-        <v>912627.9822580218</v>
+        <v>-25749226.55067499</v>
       </c>
       <c r="E2">
-        <v>280001592.1829701</v>
+        <v>73045348.53091852</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>136662567.2382367</v>
+        <v>25768531.29910687</v>
       </c>
       <c r="B3">
-        <v>42553315.36238435</v>
+        <v>-10924405.33554783</v>
       </c>
       <c r="C3">
-        <v>230771819.1140891</v>
+        <v>62461467.93376156</v>
       </c>
       <c r="D3">
-        <v>-7265113.276355773</v>
+        <v>-30348472.67050879</v>
       </c>
       <c r="E3">
-        <v>280590247.7528292</v>
+        <v>81885535.26872253</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>142815681.122434</v>
+        <v>26283688.16361375</v>
       </c>
       <c r="B4">
-        <v>45925149.57574585</v>
+        <v>-11271157.83719932</v>
       </c>
       <c r="C4">
-        <v>239706212.6691221</v>
+        <v>63838534.16442682</v>
       </c>
       <c r="D4">
-        <v>-5365599.584558874</v>
+        <v>-31151492.42957793</v>
       </c>
       <c r="E4">
-        <v>290996961.8294269</v>
+        <v>83718868.75680543</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>140422854.3848241</v>
+        <v>26558624.15020528</v>
       </c>
       <c r="B5">
-        <v>40828683.27944803</v>
+        <v>-11479493.06056608</v>
       </c>
       <c r="C5">
-        <v>240017025.4902001</v>
+        <v>64596741.36097665</v>
       </c>
       <c r="D5">
-        <v>-11893286.20972562</v>
+        <v>-31615655.97807288</v>
       </c>
       <c r="E5">
-        <v>292738994.9793738</v>
+        <v>84732904.27848345</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>157435906.5422822</v>
+        <v>26760285.35038573</v>
       </c>
       <c r="B6">
-        <v>55209575.62439168</v>
+        <v>-11618157.20241814</v>
       </c>
       <c r="C6">
-        <v>259662237.4601728</v>
+        <v>65138727.90318959</v>
       </c>
       <c r="D6">
-        <v>1094224.898286074</v>
+        <v>-31934477.47351188</v>
       </c>
       <c r="E6">
-        <v>313777588.1862783</v>
+        <v>85455048.17428333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>179794925.9664967</v>
+        <v>26915856.31785241</v>
       </c>
       <c r="B7">
-        <v>75002528.59101331</v>
+        <v>-11713643.86393394</v>
       </c>
       <c r="C7">
-        <v>284587323.3419801</v>
+        <v>65545356.49963876</v>
       </c>
       <c r="D7">
-        <v>19528784.33662322</v>
+        <v>-32162866.0158138</v>
       </c>
       <c r="E7">
-        <v>340061067.5963702</v>
+        <v>85994578.65151861</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>135983349.69333</v>
+        <v>27035029.92615293</v>
       </c>
       <c r="B8">
-        <v>28686237.13913144</v>
+        <v>-11783443.60339163</v>
       </c>
       <c r="C8">
-        <v>243280462.2475286</v>
+        <v>65853503.45569749</v>
       </c>
       <c r="D8">
-        <v>-28113423.23831743</v>
+        <v>-32332702.20282859</v>
       </c>
       <c r="E8">
-        <v>300080122.6249775</v>
+        <v>86402762.05513445</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>114132114.815404</v>
+        <v>27124340.06165171</v>
       </c>
       <c r="B9">
-        <v>4387437.59944281</v>
+        <v>-11838838.31826468</v>
       </c>
       <c r="C9">
-        <v>223876792.0313652</v>
+        <v>66087518.44156809</v>
       </c>
       <c r="D9">
-        <v>-53707885.24487568</v>
+        <v>-32464699.03830332</v>
       </c>
       <c r="E9">
-        <v>281972114.8756837</v>
+        <v>86713379.16160673</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>122272226.8071549</v>
+        <v>27189012.63969745</v>
       </c>
       <c r="B10">
-        <v>10133393.24802309</v>
+        <v>-11886916.51563844</v>
       </c>
       <c r="C10">
-        <v>234411060.3662867</v>
+        <v>66264941.79503334</v>
       </c>
       <c r="D10">
-        <v>-49229319.40712479</v>
+        <v>-32572463.89078522</v>
       </c>
       <c r="E10">
-        <v>293773773.0214346</v>
+        <v>86950489.17018011</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>124571093.3846019</v>
+        <v>27233343.41136998</v>
       </c>
       <c r="B11">
-        <v>10088161.00265336</v>
+        <v>-11932031.23295978</v>
       </c>
       <c r="C11">
-        <v>239054025.7665505</v>
+        <v>66398718.05569974</v>
       </c>
       <c r="D11">
-        <v>-50515442.61272346</v>
+        <v>-32664928.18980739</v>
       </c>
       <c r="E11">
-        <v>299657629.3819273</v>
+        <v>87131615.01254734</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>125294675.2672749</v>
+        <v>27260877.32317609</v>
       </c>
       <c r="B12">
-        <v>8514687.163417995</v>
+        <v>-11976773.7295716</v>
       </c>
       <c r="C12">
-        <v>242074663.3711318</v>
+        <v>66498528.37592378</v>
       </c>
       <c r="D12">
-        <v>-53304904.29885045</v>
+        <v>-32747931.50587384</v>
       </c>
       <c r="E12">
-        <v>303894254.8334003</v>
+        <v>87269686.152226</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>168116804.4947576</v>
+        <v>27274541.33904593</v>
       </c>
       <c r="B13">
-        <v>49084080.27026498</v>
+        <v>-12022611.07358725</v>
       </c>
       <c r="C13">
-        <v>287149528.7192502</v>
+        <v>66571693.75167911</v>
       </c>
       <c r="D13">
-        <v>-13928037.65917644</v>
+        <v>-32825266.96715508</v>
       </c>
       <c r="E13">
-        <v>350161646.6486917</v>
+        <v>87374349.64524692</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>127662842.7749217</v>
+        <v>27276752.35608415</v>
       </c>
       <c r="B14">
-        <v>2020912.783668876</v>
+        <v>-12070301.99104232</v>
       </c>
       <c r="C14">
-        <v>253304772.7661745</v>
+        <v>66623806.70321063</v>
       </c>
       <c r="D14">
-        <v>-64489907.33803362</v>
+        <v>-32899374.37303117</v>
       </c>
       <c r="E14">
-        <v>319815592.887877</v>
+        <v>87452879.08519948</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>123868299.9305444</v>
+        <v>27269506.11250521</v>
       </c>
       <c r="B15">
-        <v>-3870176.601368368</v>
+        <v>-12120167.37241779</v>
       </c>
       <c r="C15">
-        <v>251606776.4624571</v>
+        <v>66659179.59742822</v>
       </c>
       <c r="D15">
-        <v>-71490841.42103368</v>
+        <v>-32971800.96313628</v>
       </c>
       <c r="E15">
-        <v>319227441.2821224</v>
+        <v>87510813.18814671</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>130021413.8147416</v>
+        <v>27254450.57955614</v>
       </c>
       <c r="B16">
-        <v>220249.7157199234</v>
+        <v>-12172265.36798665</v>
       </c>
       <c r="C16">
-        <v>259822577.9137633</v>
+        <v>66681166.52709892</v>
       </c>
       <c r="D16">
-        <v>-68492335.94400895</v>
+        <v>-33043508.05391993</v>
       </c>
       <c r="E16">
-        <v>328535163.5734922</v>
+        <v>87552409.2130322</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>127628587.0771317</v>
+        <v>27232946.56186259</v>
       </c>
       <c r="B17">
-        <v>-4202994.936543256</v>
+        <v>-12226503.78156703</v>
       </c>
       <c r="C17">
-        <v>259460169.0908067</v>
+        <v>66692396.90529221</v>
       </c>
       <c r="D17">
-        <v>-73990418.91420302</v>
+        <v>-33115075.00994448</v>
       </c>
       <c r="E17">
-        <v>329247593.0684664</v>
+        <v>87580968.13366966</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>144641639.2345899</v>
+        <v>27206117.73757504</v>
       </c>
       <c r="B18">
-        <v>10810440.2150957</v>
+        <v>-12282711.29736166</v>
       </c>
       <c r="C18">
-        <v>278472838.2540841</v>
+        <v>66694946.77251174</v>
       </c>
       <c r="D18">
-        <v>-60035517.0642699</v>
+        <v>-33186834.66558904</v>
       </c>
       <c r="E18">
-        <v>349318795.5334497</v>
+        <v>87599070.14073911</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>167000658.6588044</v>
+        <v>27174891.97875321</v>
       </c>
       <c r="B19">
-        <v>31199282.94499719</v>
+        <v>-12340681.76693586</v>
       </c>
       <c r="C19">
-        <v>302802034.3726115</v>
+        <v>66690465.72444227</v>
       </c>
       <c r="D19">
-        <v>-40689622.87656725</v>
+        <v>-33258962.92982766</v>
       </c>
       <c r="E19">
-        <v>374690940.194176</v>
+        <v>87608746.88733408</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>123189082.3856377</v>
+        <v>27140035.47147928</v>
       </c>
       <c r="B20">
-        <v>-14554292.99238099</v>
+        <v>-12400200.96942769</v>
       </c>
       <c r="C20">
-        <v>260932457.7636563</v>
+        <v>66680271.91238625</v>
       </c>
       <c r="D20">
-        <v>-87471231.33741723</v>
+        <v>-33331537.77453598</v>
       </c>
       <c r="E20">
-        <v>333849396.1086925</v>
+        <v>87611608.71749455</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>101337847.5077117</v>
+        <v>27102180.89038372</v>
       </c>
       <c r="B21">
-        <v>-38320525.94442658</v>
+        <v>-12461062.07031319</v>
       </c>
       <c r="C21">
-        <v>240996220.9598499</v>
+        <v>66665423.85108063</v>
       </c>
       <c r="D21">
-        <v>-112251203.034562</v>
+        <v>-33404577.79132544</v>
       </c>
       <c r="E21">
-        <v>314926898.0499854</v>
+        <v>87608939.57209288</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>109477959.4994625</v>
+        <v>27061850.66363041</v>
       </c>
       <c r="B22">
-        <v>-32069506.35586128</v>
+        <v>-12523073.88649797</v>
       </c>
       <c r="C22">
-        <v>251025425.3547863</v>
+        <v>66646775.2137588</v>
       </c>
       <c r="D22">
-        <v>-107000208.5572816</v>
+        <v>-33478067.14764933</v>
       </c>
       <c r="E22">
-        <v>325956127.5562066</v>
+        <v>87601768.47491015</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>111776826.0769096</v>
+        <v>27019476.18387088</v>
       </c>
       <c r="B23">
-        <v>-31634850.24280718</v>
+        <v>-12586064.65692914</v>
       </c>
       <c r="C23">
-        <v>255188502.3966263</v>
+        <v>66625017.02467091</v>
       </c>
       <c r="D23">
-        <v>-107552405.8527581</v>
+        <v>-33551971.5231209</v>
       </c>
       <c r="E23">
-        <v>331106058.0065773</v>
+        <v>87590923.89086266</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>112500407.9595825</v>
+        <v>26975413.67160134</v>
       </c>
       <c r="B24">
-        <v>-32751554.91733821</v>
+        <v>-12649883.08108232</v>
       </c>
       <c r="C24">
-        <v>257752370.8365033</v>
+        <v>66600710.424285</v>
       </c>
       <c r="D24">
-        <v>-109643299.3843618</v>
+        <v>-33626248.09529619</v>
       </c>
       <c r="E24">
-        <v>334644115.3035268</v>
+        <v>87577075.43849887</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>155322537.1870652</v>
+        <v>26929957.27425687</v>
       </c>
       <c r="B25">
-        <v>8253313.573266625</v>
+        <v>-12714397.76557092</v>
       </c>
       <c r="C25">
-        <v>302391760.8008639</v>
+        <v>66574312.31408466</v>
       </c>
       <c r="D25">
-        <v>-69600430.61783901</v>
+        <v>-33700851.62757755</v>
       </c>
       <c r="E25">
-        <v>380245504.9919695</v>
+        <v>87560766.17609128</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>114868575.4672293</v>
+        <v>26883349.88272798</v>
       </c>
       <c r="B26">
-        <v>-37599328.26987945</v>
+        <v>-12779495.80725936</v>
       </c>
       <c r="C26">
-        <v>267336479.2043381</v>
+        <v>66546195.57271532</v>
       </c>
       <c r="D26">
-        <v>-118310961.0862321</v>
+        <v>-33775738.02819029</v>
       </c>
       <c r="E26">
-        <v>348048112.0206908</v>
+        <v>87542437.79364625</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>111074032.622852</v>
+        <v>26835792.06304947</v>
       </c>
       <c r="B27">
-        <v>-43126114.8633142</v>
+        <v>-12845080.96984866</v>
       </c>
       <c r="C27">
-        <v>265274180.1090182</v>
+        <v>66516665.09594759</v>
       </c>
       <c r="D27">
-        <v>-124754742.1289604</v>
+        <v>-33850866.28966142</v>
       </c>
       <c r="E27">
-        <v>346902807.3746644</v>
+        <v>87522450.41576035</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>117227146.5070493</v>
+        <v>26787449.43170129</v>
       </c>
       <c r="B28">
-        <v>-38686000.1468572</v>
+        <v>-12911071.73321712</v>
       </c>
       <c r="C28">
-        <v>273140293.1609558</v>
+        <v>66485970.5966197</v>
       </c>
       <c r="D28">
-        <v>-121221434.395826</v>
+        <v>-33926199.40979221</v>
       </c>
       <c r="E28">
-        <v>355675727.4099246</v>
+        <v>87501098.27319479</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>114834319.7694394</v>
+        <v>26738458.74572946</v>
       </c>
       <c r="B29">
-        <v>-42773208.96662612</v>
+        <v>-12977399.37952377</v>
       </c>
       <c r="C29">
-        <v>272441848.5055049</v>
+        <v>66454316.87098269</v>
       </c>
       <c r="D29">
-        <v>-126205594.909124</v>
+        <v>-34001704.68852115</v>
       </c>
       <c r="E29">
-        <v>355874234.4480028</v>
+        <v>87478622.17998007</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>131847371.9268975</v>
+        <v>26688932.93163525</v>
       </c>
       <c r="B30">
-        <v>-27436515.92450087</v>
+        <v>-13044006.20622235</v>
       </c>
       <c r="C30">
-        <v>291131259.7782959</v>
+        <v>66421872.06949284</v>
       </c>
       <c r="D30">
-        <v>-111756312.7782053</v>
+        <v>-34077353.65709788</v>
       </c>
       <c r="E30">
-        <v>375451056.6320003</v>
+        <v>87455219.52036837</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>154206391.351112</v>
+        <v>26638965.23795719</v>
       </c>
       <c r="B31">
-        <v>-6736395.824405789</v>
+        <v>-13110843.90962531</v>
       </c>
       <c r="C31">
-        <v>315149178.5266298</v>
+        <v>66388774.3855397</v>
       </c>
       <c r="D31">
-        <v>-91934360.93415499</v>
+        <v>-34153121.80420179</v>
       </c>
       <c r="E31">
-        <v>400347143.636379</v>
+        <v>87431052.28011617</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>110394815.0779453</v>
+        <v>26588632.66424681</v>
       </c>
       <c r="B32">
-        <v>-52189946.07324977</v>
+        <v>-13177872.15409251</v>
       </c>
       <c r="C32">
-        <v>272979576.2291404</v>
+        <v>66355137.48258613</v>
       </c>
       <c r="D32">
-        <v>-138257119.7007955</v>
+        <v>-34228988.202895</v>
       </c>
       <c r="E32">
-        <v>359046749.8566861</v>
+        <v>87406253.53138863</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>88543580.2000193</v>
+        <v>26537998.79252931</v>
       </c>
       <c r="B33">
-        <v>-75666737.29969904</v>
+        <v>-13245057.32502323</v>
       </c>
       <c r="C33">
-        <v>252753897.6997376</v>
+        <v>66321054.91008186</v>
       </c>
       <c r="D33">
-        <v>-162594428.4782076</v>
+        <v>-34304935.10237309</v>
       </c>
       <c r="E33">
-        <v>339681588.8782462</v>
+        <v>87380932.68743172</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>96683692.19177017</v>
+        <v>26487116.12536937</v>
       </c>
       <c r="B34">
-        <v>-69136246.86299324</v>
+        <v>-13312371.45442963</v>
       </c>
       <c r="C34">
-        <v>262503631.2465336</v>
+        <v>66286603.70516837</v>
       </c>
       <c r="D34">
-        <v>-156916020.2223396</v>
+        <v>-34380947.52246866</v>
       </c>
       <c r="E34">
-        <v>350283404.60588</v>
+        <v>87355179.7732074</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>98982558.76921722</v>
+        <v>26436028.01651803</v>
       </c>
       <c r="B35">
-        <v>-68431526.66833666</v>
+        <v>-13379791.30320516</v>
       </c>
       <c r="C35">
-        <v>266396644.2067711</v>
+        <v>66251847.33624122</v>
       </c>
       <c r="D35">
-        <v>-157055190.1471744</v>
+        <v>-34457012.87212472</v>
       </c>
       <c r="E35">
-        <v>355020307.6856088</v>
+        <v>87329068.90516078</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>99706140.65189017</v>
+        <v>26384770.26513569</v>
       </c>
       <c r="B36">
-        <v>-69287053.93789129</v>
+        <v>-13447297.5824585</v>
       </c>
       <c r="C36">
-        <v>268699335.2416716</v>
+        <v>66216838.11272988</v>
       </c>
       <c r="D36">
-        <v>-158746647.3072015</v>
+        <v>-34533120.60245848</v>
       </c>
       <c r="E36">
-        <v>358158928.6109818</v>
+        <v>87302661.13272986</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>142528269.8793729</v>
+        <v>26333372.43221426</v>
       </c>
       <c r="B37">
-        <v>-28029414.29940248</v>
+        <v>-13514874.29628193</v>
       </c>
       <c r="C37">
-        <v>313085954.0581483</v>
+        <v>66181619.16071045</v>
       </c>
       <c r="D37">
-        <v>-118317198.4298949</v>
+        <v>-34609261.89848404</v>
       </c>
       <c r="E37">
-        <v>403373738.1886407</v>
+        <v>87276006.76291256</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>102074308.159537</v>
+        <v>26281858.92760676</v>
       </c>
       <c r="B38">
-        <v>-73159903.02095614</v>
+        <v>-13582508.18929858</v>
       </c>
       <c r="C38">
-        <v>277308519.3400301</v>
+        <v>66146226.0445121</v>
       </c>
       <c r="D38">
-        <v>-165923291.0062062</v>
+        <v>-34685429.40964749</v>
       </c>
       <c r="E38">
-        <v>370071907.3252801</v>
+        <v>87249147.26486102</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>98279765.31515966</v>
+        <v>26230249.90763691</v>
       </c>
       <c r="B39">
-        <v>-78463700.144859</v>
+        <v>-13650188.28380649</v>
       </c>
       <c r="C39">
-        <v>275023230.7751783</v>
+        <v>66110688.09908031</v>
       </c>
       <c r="D39">
-        <v>-172026039.0847021</v>
+        <v>-34761617.01711575</v>
       </c>
       <c r="E39">
-        <v>368585569.7150214</v>
+        <v>87222116.83238956</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>104432879.1993569</v>
+        <v>26178562.01629627</v>
       </c>
       <c r="B40">
-        <v>-73807061.32347861</v>
+        <v>-13717905.49300771</v>
       </c>
       <c r="C40">
-        <v>282672819.7221925</v>
+        <v>66075029.52560025</v>
       </c>
       <c r="D40">
-        <v>-168161586.3092266</v>
+        <v>-34837819.63462751</v>
       </c>
       <c r="E40">
-        <v>377027344.7079405</v>
+        <v>87194943.66722004</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>102040052.461747</v>
+        <v>26126808.99728428</v>
       </c>
       <c r="B41">
-        <v>-77683903.1266806</v>
+        <v>-13785652.29850046</v>
       </c>
       <c r="C41">
-        <v>281764008.0501746</v>
+        <v>66039270.29306901</v>
       </c>
       <c r="D41">
-        <v>-172824018.2342324</v>
+        <v>-34914033.03925448</v>
       </c>
       <c r="E41">
-        <v>376904123.1577264</v>
+        <v>87167651.03382304</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>119053104.6192052</v>
+        <v>26075002.19939741</v>
       </c>
       <c r="B42">
-        <v>-62142712.18437962</v>
+        <v>-13853422.48181812</v>
       </c>
       <c r="C42">
-        <v>300248921.4227899</v>
+        <v>66003426.88061295</v>
       </c>
       <c r="D42">
-        <v>-158061983.5539551</v>
+        <v>-34990253.72836265</v>
       </c>
       <c r="E42">
-        <v>396168192.7923654</v>
+        <v>87140258.12715748</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>141412124.0434196</v>
+        <v>26023150.9938522</v>
       </c>
       <c r="B43">
-        <v>-41243693.936423</v>
+        <v>-13921210.901269</v>
       </c>
       <c r="C43">
-        <v>324067942.0232623</v>
+        <v>65967512.88897339</v>
       </c>
       <c r="D43">
-        <v>-137935843.242674</v>
+        <v>-35066478.7992355</v>
       </c>
       <c r="E43">
-        <v>420760091.3295132</v>
+        <v>87112780.78693989</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>97600547.77025296</v>
+        <v>25971263.11888751</v>
       </c>
       <c r="B44">
-        <v>-86503693.50803085</v>
+        <v>-13989013.30664355</v>
       </c>
       <c r="C44">
-        <v>281704789.0485368</v>
+        <v>65931539.54441858</v>
       </c>
       <c r="D44">
-        <v>-183962591.7926635</v>
+        <v>-35142705.84811471</v>
       </c>
       <c r="E44">
-        <v>379163687.3331694</v>
+        <v>87085232.08588973</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>75749312.89232694</v>
+        <v>25919344.96431851</v>
       </c>
       <c r="B45">
-        <v>-109792044.9538948</v>
+        <v>-14056826.18550605</v>
       </c>
       <c r="C45">
-        <v>261290670.7385486</v>
+        <v>65895516.11414308</v>
       </c>
       <c r="D45">
-        <v>-208011706.7953328</v>
+        <v>-35218932.88575717</v>
       </c>
       <c r="E45">
-        <v>359510332.5799867</v>
+        <v>87057622.81439421</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>83889424.88407782</v>
+        <v>25867401.80650559</v>
       </c>
       <c r="B46">
-        <v>-103078003.5257573</v>
+        <v>-14124646.63578359</v>
       </c>
       <c r="C46">
-        <v>270856853.293913</v>
+        <v>65859450.24879477</v>
       </c>
       <c r="D46">
-        <v>-202052581.5225263</v>
+        <v>-35295158.26696189</v>
       </c>
       <c r="E46">
-        <v>369831431.290682</v>
+        <v>87029961.87997307</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>86188291.46152486</v>
+        <v>25815438.0023791</v>
       </c>
       <c r="B47">
-        <v>-102194412.3648986</v>
+        <v>-14192472.26021885</v>
       </c>
       <c r="C47">
-        <v>274570995.2879483</v>
+        <v>65823348.26497706</v>
       </c>
       <c r="D47">
-        <v>-201918191.9113566</v>
+        <v>-35371380.63185978</v>
       </c>
       <c r="E47">
-        <v>374294774.8344063</v>
+        <v>87002256.63661799</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>86911873.34419783</v>
+        <v>25763457.14965425</v>
       </c>
       <c r="B48">
-        <v>-102875552.2553954</v>
+        <v>-14260301.07897966</v>
       </c>
       <c r="C48">
-        <v>276699298.9437911</v>
+        <v>65787215.37828817</v>
       </c>
       <c r="D48">
-        <v>-203342946.5901876</v>
+        <v>-35447598.85707419</v>
       </c>
       <c r="E48">
-        <v>377166693.2785832</v>
+        <v>86974513.15638271</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>129734002.5716805</v>
+        <v>25711462.21912776</v>
       </c>
       <c r="B49">
-        <v>-61447823.7886937</v>
+        <v>-14328131.45733215</v>
       </c>
       <c r="C49">
-        <v>320915828.9320548</v>
+        <v>65751055.89558767</v>
       </c>
       <c r="D49">
-        <v>-162653369.2978933</v>
+        <v>-35523812.01514023</v>
       </c>
       <c r="E49">
-        <v>422121374.4412544</v>
+        <v>86946736.45339575</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>89280040.85184462</v>
+        <v>25659455.66392136</v>
       </c>
       <c r="B50">
-        <v>-106085247.4316963</v>
+        <v>-14395962.0458014</v>
       </c>
       <c r="C50">
-        <v>284645329.1353856</v>
+        <v>65714873.37364411</v>
       </c>
       <c r="D50">
-        <v>-209505383.9096681</v>
+        <v>-35600019.34081829</v>
       </c>
       <c r="E50">
-        <v>388065465.6133573</v>
+        <v>86918930.668661</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>85485498.0074673</v>
+        <v>25607439.50968903</v>
       </c>
       <c r="B51">
-        <v>-111234657.7490748</v>
+        <v>-14463791.73067787</v>
       </c>
       <c r="C51">
-        <v>282205653.7640094</v>
+        <v>65678670.75005593</v>
       </c>
       <c r="D51">
-        <v>-215372017.743048</v>
+        <v>-35676220.20315307</v>
       </c>
       <c r="E51">
-        <v>386343013.7579826</v>
+        <v>86891099.22253114</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>91638611.89166459</v>
+        <v>25555415.42910525</v>
       </c>
       <c r="B52">
-        <v>-106427143.5928344</v>
+        <v>-14531619.59309024</v>
       </c>
       <c r="C52">
-        <v>289704367.3761636</v>
+        <v>65642450.45130075</v>
       </c>
       <c r="D52">
-        <v>-211276821.0549345</v>
+        <v>-35752414.08231254</v>
       </c>
       <c r="E52">
-        <v>394554044.8382636</v>
+        <v>86863244.94052304</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>89245785.15405464</v>
+        <v>25503384.80337322</v>
       </c>
       <c r="B53">
-        <v>-110156489.9343016</v>
+        <v>-14599444.8751687</v>
       </c>
       <c r="C53">
-        <v>288648060.2424109</v>
+        <v>65606214.48191514</v>
       </c>
       <c r="D53">
-        <v>-215713678.1371828</v>
+        <v>-35828600.55039965</v>
       </c>
       <c r="E53">
-        <v>394205248.4452921</v>
+        <v>86835370.1571461</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>106258837.3115128</v>
+        <v>25451348.77301516</v>
       </c>
       <c r="B54">
-        <v>-94471058.63121827</v>
+        <v>-14667266.95207443</v>
       </c>
       <c r="C54">
-        <v>306988733.2542439</v>
+        <v>65569964.49810474</v>
       </c>
       <c r="D54">
-        <v>-200731046.8614573</v>
+        <v>-35904779.25556187</v>
       </c>
       <c r="E54">
-        <v>413248721.4844829</v>
+        <v>86807476.80159217</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>128617856.7357273</v>
+        <v>25399308.27981204</v>
       </c>
       <c r="B55">
-        <v>-73430936.72750229</v>
+        <v>-14735085.30888157</v>
       </c>
       <c r="C55">
-        <v>330666650.1989569</v>
+        <v>65533701.86850564</v>
       </c>
       <c r="D55">
-        <v>-180389107.1310886</v>
+        <v>-35980949.90883677</v>
       </c>
       <c r="E55">
-        <v>437624820.6025431</v>
+        <v>86779566.46846086</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>84806280.46256061</v>
+        <v>25347264.10143515</v>
       </c>
       <c r="B56">
-        <v>-118552856.9144305</v>
+        <v>-14802899.52147173</v>
       </c>
       <c r="C56">
-        <v>288165417.8395518</v>
+        <v>65497427.72434204</v>
       </c>
       <c r="D56">
-        <v>-226204681.4854738</v>
+        <v>-36057112.27326563</v>
       </c>
       <c r="E56">
-        <v>395817242.4105949</v>
+        <v>86751640.47613594</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>62955045.58463459</v>
+        <v>25295216.88004299</v>
       </c>
       <c r="B57">
-        <v>-141706046.393008</v>
+        <v>-14870709.24074616</v>
       </c>
       <c r="C57">
-        <v>267616137.5622772</v>
+        <v>65461143.00083213</v>
       </c>
       <c r="D57">
-        <v>-250047084.0974103</v>
+        <v>-36133266.1548861</v>
       </c>
       <c r="E57">
-        <v>375957175.2666795</v>
+        <v>86723699.91497207</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>71095157.57638547</v>
+        <v>25243167.14589496</v>
       </c>
       <c r="B58">
-        <v>-134859658.7893607</v>
+        <v>-14938514.17958013</v>
       </c>
       <c r="C58">
-        <v>277049973.9421316</v>
+        <v>65424848.47137005</v>
       </c>
       <c r="D58">
-        <v>-243885552.8157744</v>
+        <v>-36209411.39528118</v>
       </c>
       <c r="E58">
-        <v>386075867.9685453</v>
+        <v>86695745.6870711</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>73394024.15383251</v>
+        <v>25191115.33685036</v>
       </c>
       <c r="B59">
-        <v>-133846440.5219045</v>
+        <v>-15006314.10204419</v>
       </c>
       <c r="C59">
-        <v>280634488.8295695</v>
+        <v>65388544.77574492</v>
       </c>
       <c r="D59">
-        <v>-243552915.652823</v>
+        <v>-36285547.86541664</v>
       </c>
       <c r="E59">
-        <v>390340963.960488</v>
+        <v>86667778.53911737</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>74117606.03650546</v>
+        <v>25139061.81446944</v>
       </c>
       <c r="B60">
-        <v>-134400580.2537617</v>
+        <v>-15074108.81449875</v>
       </c>
       <c r="C60">
-        <v>282635792.3267726</v>
+        <v>65352232.44343764</v>
       </c>
       <c r="D60">
-        <v>-244783440.3500778</v>
+        <v>-36361675.4605447</v>
       </c>
       <c r="E60">
-        <v>393018652.4230887</v>
+        <v>86639799.08948359</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>116939735.2639882</v>
+        <v>25087006.87730896</v>
       </c>
       <c r="B61">
-        <v>-92848390.77881169</v>
+        <v>-15141898.15823653</v>
       </c>
       <c r="C61">
-        <v>326727861.306788</v>
+        <v>65315911.91285446</v>
       </c>
       <c r="D61">
-        <v>-203903516.3716224</v>
+        <v>-36437794.09598994</v>
       </c>
       <c r="E61">
-        <v>437782986.8995987</v>
+        <v>86611807.85060787</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>76485773.54415226</v>
+        <v>25034950.77190077</v>
       </c>
       <c r="B62">
-        <v>-137121723.8995761</v>
+        <v>-15209682.00340439</v>
       </c>
       <c r="C62">
-        <v>290093270.9878807</v>
+        <v>65279583.54720594</v>
       </c>
       <c r="D62">
-        <v>-250198702.5811034</v>
+        <v>-36513903.70366517</v>
       </c>
       <c r="E62">
-        <v>403170249.669408</v>
+        <v>86583805.24746671</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>72691230.69977495</v>
+        <v>24982893.70181742</v>
       </c>
       <c r="B63">
-        <v>-142156126.2282068</v>
+        <v>-15277460.24398187</v>
       </c>
       <c r="C63">
-        <v>287538587.6277567</v>
+        <v>65243247.64761671</v>
       </c>
       <c r="D63">
-        <v>-255889446.8740696</v>
+        <v>-36590004.22919092</v>
       </c>
       <c r="E63">
-        <v>401271908.2736195</v>
+        <v>86555791.63282576</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>78844344.58397223</v>
+        <v>24930835.83515798</v>
       </c>
       <c r="B64">
-        <v>-137235757.6783757</v>
+        <v>-15345232.7936331</v>
       </c>
       <c r="C64">
-        <v>294924446.8463202</v>
+        <v>65206904.46394905</v>
       </c>
       <c r="D64">
-        <v>-251621654.2851108</v>
+        <v>-36666095.62951413</v>
       </c>
       <c r="E64">
-        <v>409310343.4530553</v>
+        <v>86527767.29983008</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>76451517.84636229</v>
+        <v>24878777.31072949</v>
       </c>
       <c r="B65">
-        <v>-140854336.6731925</v>
+        <v>-15412999.58228002</v>
       </c>
       <c r="C65">
-        <v>293757372.3659171</v>
+        <v>65170554.203739</v>
       </c>
       <c r="D65">
-        <v>-255889107.3293675</v>
+        <v>-36742177.87093966</v>
       </c>
       <c r="E65">
-        <v>408792143.022092</v>
+        <v>86499732.49239865</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>93464570.00382045</v>
+        <v>24826718.24315126</v>
       </c>
       <c r="B66">
-        <v>-125060161.3728387</v>
+        <v>-15480760.5532717</v>
       </c>
       <c r="C66">
-        <v>311989301.3804796</v>
+        <v>65134197.03957423</v>
       </c>
       <c r="D66">
-        <v>-240740166.4614919</v>
+        <v>-36818250.9275032</v>
       </c>
       <c r="E66">
-        <v>427669306.4691328</v>
+        <v>86471687.41380572</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>115823589.4280349</v>
+        <v>24774658.72706962</v>
       </c>
       <c r="B67">
-        <v>-103913257.8188667</v>
+        <v>-15548515.66104607</v>
       </c>
       <c r="C67">
-        <v>335560436.6749365</v>
+        <v>65097833.11518531</v>
       </c>
       <c r="D67">
-        <v>-220234918.2897475</v>
+        <v>-36894314.7796263</v>
       </c>
       <c r="E67">
-        <v>451882097.1458174</v>
+        <v>86443632.23376554</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>72012013.15486825</v>
+        <v>24722598.84063835</v>
       </c>
       <c r="B68">
-        <v>-148930300.2501818</v>
+        <v>-15616264.86919829</v>
       </c>
       <c r="C68">
-        <v>292954326.5599183</v>
+        <v>65061462.55047499</v>
       </c>
       <c r="D68">
-        <v>-265890095.9583436</v>
+        <v>-36970369.41300467</v>
       </c>
       <c r="E68">
-        <v>409914122.2680801</v>
+        <v>86415567.09428138</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>50160778.27694224</v>
+        <v>24670538.64839259</v>
       </c>
       <c r="B69">
-        <v>-171980459.8296788</v>
+        <v>-15684008.14888522</v>
       </c>
       <c r="C69">
-        <v>272302016.3835632</v>
+        <v>65025085.4456704</v>
       </c>
       <c r="D69">
-        <v>-289574927.9371837</v>
+        <v>-37046414.81768942</v>
       </c>
       <c r="E69">
-        <v>389896484.4910682</v>
+        <v>86387492.11447459</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>58300890.26869311</v>
+        <v>24618478.20362192</v>
       </c>
       <c r="B70">
-        <v>-165032836.4326487</v>
+        <v>-15751745.47750747</v>
       </c>
       <c r="C70">
-        <v>281634616.9700349</v>
+        <v>64988701.88475132</v>
       </c>
       <c r="D70">
-        <v>-283258569.8703358</v>
+        <v>-37122450.98732752</v>
       </c>
       <c r="E70">
-        <v>399860350.407722</v>
+        <v>86359407.39457136</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>60599756.84614016</v>
+        <v>24566417.55032995</v>
       </c>
       <c r="B71">
-        <v>-163920124.8950473</v>
+        <v>-15819476.83762073</v>
       </c>
       <c r="C71">
-        <v>285119638.5873276</v>
+        <v>64952311.93828063</v>
       </c>
       <c r="D71">
-        <v>-282773770.881492</v>
+        <v>-37198477.91853431</v>
       </c>
       <c r="E71">
-        <v>403973284.5737723</v>
+        <v>86331313.01919422</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>61323338.7288131</v>
+        <v>24514356.7248525</v>
       </c>
       <c r="B72">
-        <v>-164376464.3544947</v>
+        <v>-15887202.2160364</v>
       </c>
       <c r="C72">
-        <v>287023141.8121209</v>
+        <v>64915915.66574141</v>
       </c>
       <c r="D72">
-        <v>-283854722.9694543</v>
+        <v>-37274495.61037459</v>
       </c>
       <c r="E72">
-        <v>406501400.4270805</v>
+        <v>86303209.0600796</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>104145467.9562958</v>
+        <v>24462295.75719367</v>
       </c>
       <c r="B73">
-        <v>-122728120.0318415</v>
+        <v>-15954921.60307893</v>
       </c>
       <c r="C73">
-        <v>331019055.9444331</v>
+        <v>64879513.11746627</v>
       </c>
       <c r="D73">
-        <v>-242827742.8416373</v>
+        <v>-37350504.0639341</v>
       </c>
       <c r="E73">
-        <v>451118678.754229</v>
+        <v>86275095.57832144</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>63691506.23645991</v>
+        <v>24410234.67212923</v>
       </c>
       <c r="B74">
-        <v>-166718411.2198724</v>
+        <v>-16022634.99197213</v>
       </c>
       <c r="C74">
-        <v>294101423.6927922</v>
+        <v>64843104.33623059</v>
       </c>
       <c r="D74">
-        <v>-288690053.7699457</v>
+        <v>-37426503.28196505</v>
       </c>
       <c r="E74">
-        <v>416073066.2428656</v>
+        <v>86246972.6262235</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>59896963.3920826</v>
+        <v>24358173.49011762</v>
       </c>
       <c r="B75">
-        <v>-171662864.4645665</v>
+        <v>-16090342.37833241</v>
       </c>
       <c r="C75">
-        <v>291456791.2487317</v>
+        <v>64806689.35856766</v>
       </c>
       <c r="D75">
-        <v>-294243232.8102152</v>
+        <v>-37502493.26859336</v>
       </c>
       <c r="E75">
-        <v>414037159.5943805</v>
+        <v>86218840.24882862</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>66050077.27627987</v>
+        <v>24306112.22805236</v>
       </c>
       <c r="B76">
-        <v>-166653978.7514743</v>
+        <v>-16158043.75975011</v>
       </c>
       <c r="C76">
-        <v>298754133.3040341</v>
+        <v>64770268.21585484</v>
       </c>
       <c r="D76">
-        <v>-289840064.9022527</v>
+        <v>-37578474.02907667</v>
       </c>
       <c r="E76">
-        <v>421940219.4548124</v>
+        <v>86190698.48518139</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>63657250.53866994</v>
+        <v>24254050.89988318</v>
       </c>
       <c r="B77">
-        <v>-170185434.8430527</v>
+        <v>-16225739.13544375</v>
       </c>
       <c r="C77">
-        <v>297499935.9203925</v>
+        <v>64733840.93521012</v>
       </c>
       <c r="D77">
-        <v>-293974274.9642003</v>
+        <v>-37654445.56960434</v>
       </c>
       <c r="E77">
-        <v>421288776.0415402</v>
+        <v>86162547.3693707</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>80670302.6961281</v>
+        <v>24201989.51712896</v>
       </c>
       <c r="B78">
-        <v>-154305494.6135149</v>
+        <v>-16293428.50597444</v>
       </c>
       <c r="C78">
-        <v>315646100.0057712</v>
+        <v>64697407.54023236</v>
       </c>
       <c r="D78">
-        <v>-278694167.9561111</v>
+        <v>-37730407.89713226</v>
       </c>
       <c r="E78">
-        <v>440034773.3483673</v>
+        <v>86134386.93139017</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>103029322.1203426</v>
+        <v>24149928.08930139</v>
       </c>
       <c r="B79">
-        <v>-133074149.1291704</v>
+        <v>-16361111.87300991</v>
       </c>
       <c r="C79">
-        <v>339132793.3698555</v>
+        <v>64660968.05161269</v>
       </c>
       <c r="D79">
-        <v>-258059776.9962302</v>
+        <v>-37806361.01924614</v>
       </c>
       <c r="E79">
-        <v>464118421.2369154</v>
+        <v>86106217.19784892</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>59217745.8471759</v>
+        <v>24097866.62425473</v>
       </c>
       <c r="B80">
-        <v>-178008038.9040537</v>
+        <v>-16428789.2391296</v>
       </c>
       <c r="C80">
-        <v>296443530.5984055</v>
+        <v>64624522.48763906</v>
       </c>
       <c r="D80">
-        <v>-303587783.651028</v>
+        <v>-37882304.94404874</v>
       </c>
       <c r="E80">
-        <v>422023275.3453798</v>
+        <v>86078038.1925582</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>37366510.96924989</v>
+        <v>24045805.12847459</v>
       </c>
       <c r="B81">
-        <v>-200976302.5695767</v>
+        <v>-16496460.60766382</v>
       </c>
       <c r="C81">
-        <v>275709324.5080765</v>
+        <v>64588070.864613</v>
       </c>
       <c r="D81">
-        <v>-327147366.6377983</v>
+        <v>-37958239.68006659</v>
       </c>
       <c r="E81">
-        <v>401880388.5762981</v>
+        <v>86049849.93701577</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>45506622.96100075</v>
+        <v>23993743.60731639</v>
       </c>
       <c r="B82">
-        <v>-193948008.6090965</v>
+        <v>-16564125.9825608</v>
       </c>
       <c r="C82">
-        <v>284961254.531098</v>
+        <v>64551613.19719358</v>
       </c>
       <c r="D82">
-        <v>-320707633.5907891</v>
+        <v>-38034165.23617297</v>
       </c>
       <c r="E82">
-        <v>411720879.5127906</v>
+        <v>86021652.45080575</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>47805489.5384478</v>
+        <v>23941682.06520239</v>
       </c>
       <c r="B83">
-        <v>-192755821.5552902</v>
+        <v>-16631785.36827677</v>
       </c>
       <c r="C83">
-        <v>288366800.6321858</v>
+        <v>64515149.49868154</v>
       </c>
       <c r="D83">
-        <v>-320101287.288827</v>
+        <v>-38110081.62152407</v>
       </c>
       <c r="E83">
-        <v>415712266.3657226</v>
+        <v>85993445.75192884</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>48529071.42112074</v>
+        <v>23889620.50578423</v>
       </c>
       <c r="B84">
-        <v>-193133851.2830155</v>
+        <v>-16699438.76968537</v>
       </c>
       <c r="C84">
-        <v>290191994.125257</v>
+        <v>64478679.78125382</v>
       </c>
       <c r="D84">
-        <v>-321062474.9771811</v>
+        <v>-38185988.84550659</v>
       </c>
       <c r="E84">
-        <v>418120617.8194227</v>
+        <v>85965229.85707504</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>91351200.64860347</v>
+        <v>23837558.93207723</v>
       </c>
       <c r="B85">
-        <v>-151408334.7453177</v>
+        <v>-16767086.19200273</v>
       </c>
       <c r="C85">
-        <v>334110736.0425246</v>
+        <v>64442204.05615719</v>
       </c>
       <c r="D85">
-        <v>-279917470.1313887</v>
+        <v>-38261886.9176941</v>
       </c>
       <c r="E85">
-        <v>462619871.4285955</v>
+        <v>85937004.78184855</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>50897238.92876755</v>
+        <v>23785497.3465713</v>
       </c>
       <c r="B86">
-        <v>-195170428.9195201</v>
+        <v>-16834727.64072556</v>
       </c>
       <c r="C86">
-        <v>296964906.7770552</v>
+        <v>64405722.33386815</v>
       </c>
       <c r="D86">
-        <v>-325430783.8437377</v>
+        <v>-38337775.84781118</v>
       </c>
       <c r="E86">
-        <v>427225261.7012729</v>
+        <v>85908770.54095377</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>47102696.08439024</v>
+        <v>23733435.75132245</v>
       </c>
       <c r="B87">
-        <v>-200042040.8109407</v>
+        <v>-16902363.12158012</v>
       </c>
       <c r="C87">
-        <v>294247432.9797213</v>
+        <v>64369234.62422501</v>
       </c>
       <c r="D87">
-        <v>-330872561.6475377</v>
+        <v>-38413655.64570376</v>
       </c>
       <c r="E87">
-        <v>425077953.8163181</v>
+        <v>85880527.14834866</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>53255809.96858751</v>
+        <v>23681374.14802845</v>
       </c>
       <c r="B88">
-        <v>-194961322.3769247</v>
+        <v>-16969992.64047994</v>
       </c>
       <c r="C88">
-        <v>301472942.3140997</v>
+        <v>64332740.93653683</v>
       </c>
       <c r="D88">
-        <v>-326359535.0731683</v>
+        <v>-38489526.32131457</v>
       </c>
       <c r="E88">
-        <v>432871155.0103433</v>
+        <v>85852274.61737147</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>50862983.23097758</v>
+        <v>23629312.53809117</v>
       </c>
       <c r="B89">
-        <v>-198421931.2837132</v>
+        <v>-17037616.20349109</v>
       </c>
       <c r="C89">
-        <v>300147897.7456684</v>
+        <v>64296241.27967343</v>
       </c>
       <c r="D89">
-        <v>-330385393.7161582</v>
+        <v>-38565387.88466296</v>
       </c>
       <c r="E89">
-        <v>432111360.1781133</v>
+        <v>85824012.96084529</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>67876035.38843574</v>
+        <v>23577250.92266825</v>
       </c>
       <c r="B90">
-        <v>-182472107.0439854</v>
+        <v>-17105233.81680326</v>
       </c>
       <c r="C90">
-        <v>318224177.8208569</v>
+        <v>64259735.66213976</v>
       </c>
       <c r="D90">
-        <v>-314998408.3375452</v>
+        <v>-38641240.34582806</v>
       </c>
       <c r="E90">
-        <v>450750479.1144166</v>
+        <v>85795742.19116455</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>90235054.81265022</v>
+        <v>23525189.30271558</v>
       </c>
       <c r="B91">
-        <v>-161171819.0673831</v>
+        <v>-17172845.4867061</v>
       </c>
       <c r="C91">
-        <v>341641928.6926835</v>
+        <v>64223224.09213727</v>
       </c>
       <c r="D91">
-        <v>-294258578.9345594</v>
+        <v>-38717083.71493506</v>
       </c>
       <c r="E91">
-        <v>474728688.5598598</v>
+        <v>85767462.32036623</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>46423478.53948353</v>
+        <v>23473127.67902252</v>
       </c>
       <c r="B92">
-        <v>-206037686.8877919</v>
+        <v>-17240451.21956949</v>
       </c>
       <c r="C92">
-        <v>298884643.966759</v>
+        <v>64186706.57761453</v>
       </c>
       <c r="D92">
-        <v>-339682554.9873021</v>
+        <v>-38792918.00214373</v>
       </c>
       <c r="E92">
-        <v>432529512.0662692</v>
+        <v>85739173.36018878</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>24572243.66155753</v>
+        <v>23421066.05224082</v>
       </c>
       <c r="B93">
-        <v>-228938828.8060277</v>
+        <v>-17308051.02182747</v>
       </c>
       <c r="C93">
-        <v>278083316.1291428</v>
+        <v>64150183.12630911</v>
       </c>
       <c r="D93">
-        <v>-363139484.1201042</v>
+        <v>-38868743.21763911</v>
       </c>
       <c r="E93">
-        <v>412283971.4432193</v>
+        <v>85710875.32212076</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>32712355.6533084</v>
+        <v>23369004.42290869</v>
       </c>
       <c r="B94">
-        <v>-221844293.598744</v>
+        <v>-17375644.89996476</v>
       </c>
       <c r="C94">
-        <v>287269004.9053608</v>
+        <v>64113653.74578215</v>
       </c>
       <c r="D94">
-        <v>-356598443.8284109</v>
+        <v>-38944559.37162363</v>
       </c>
       <c r="E94">
-        <v>422023155.1350277</v>
+        <v>85682568.21744102</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>35011222.23075545</v>
+        <v>23316942.79147057</v>
       </c>
       <c r="B95">
-        <v>-220586726.6913742</v>
+        <v>-17443232.86050574</v>
       </c>
       <c r="C95">
-        <v>290609171.1528851</v>
+        <v>64077118.44344688</v>
       </c>
       <c r="D95">
-        <v>-355892107.6690415</v>
+        <v>-39020366.47431071</v>
       </c>
       <c r="E95">
-        <v>425914552.1305524</v>
+        <v>85654252.05725186</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>35734804.11342839</v>
+        <v>23264881.15829343</v>
       </c>
       <c r="B96">
-        <v>-220900219.4277218</v>
+        <v>-17510814.91000533</v>
       </c>
       <c r="C96">
-        <v>292369827.6545786</v>
+        <v>64040577.22659218</v>
       </c>
       <c r="D96">
-        <v>-356754594.5464633</v>
+        <v>-39096164.53591955</v>
       </c>
       <c r="E96">
-        <v>428224202.7733201</v>
+        <v>85625926.8525064</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>78556933.34091112</v>
+        <v>23212819.52368028</v>
       </c>
       <c r="B97">
-        <v>-179110990.7837922</v>
+        <v>-17578391.05504151</v>
       </c>
       <c r="C97">
-        <v>336224857.4656144</v>
+        <v>64004030.10240208</v>
       </c>
       <c r="D97">
-        <v>-315512150.4427034</v>
+        <v>-39171953.56667067</v>
       </c>
       <c r="E97">
-        <v>472626017.1245257</v>
+        <v>85597592.61403124</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>38102971.6210752</v>
+        <v>23160757.88788138</v>
       </c>
       <c r="B98">
-        <v>-222684037.7531585</v>
+        <v>-17645961.30220902</v>
       </c>
       <c r="C98">
-        <v>298889980.9953089</v>
+        <v>63967477.07797179</v>
       </c>
       <c r="D98">
-        <v>-360736341.4050839</v>
+        <v>-39247733.57678235</v>
       </c>
       <c r="E98">
-        <v>436942284.6472343</v>
+        <v>85569249.35254511</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>34308428.77669789</v>
+        <v>23108696.25110337</v>
       </c>
       <c r="B99">
-        <v>-227495100.7509304</v>
+        <v>-17713525.6581143</v>
       </c>
       <c r="C99">
-        <v>296111958.3043262</v>
+        <v>63930918.16032104</v>
       </c>
       <c r="D99">
-        <v>-366085517.667092</v>
+        <v>-39323504.57646763</v>
       </c>
       <c r="E99">
-        <v>434702375.2204878</v>
+        <v>85540897.07867438</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>40461542.66089516</v>
+        <v>23056634.61351682</v>
       </c>
       <c r="B100">
-        <v>-222354575.3529948</v>
+        <v>-17781084.1293713</v>
       </c>
       <c r="C100">
-        <v>303277660.6747851</v>
+        <v>63894353.35640495</v>
       </c>
       <c r="D100">
-        <v>-361481024.234534</v>
+        <v>-39399266.575932</v>
       </c>
       <c r="E100">
-        <v>442404109.5563243</v>
+        <v>85512535.80296564</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>38068715.92328523</v>
+        <v>23004572.97526264</v>
       </c>
       <c r="B101">
-        <v>-225756104.1802412</v>
+        <v>-17848636.7225979</v>
       </c>
       <c r="C101">
-        <v>301893536.0268117</v>
+        <v>63857782.67312319</v>
       </c>
       <c r="D101">
-        <v>-365416527.6930589</v>
+        <v>-39475019.58537122</v>
       </c>
       <c r="E101">
-        <v>441553959.5396293</v>
+        <v>85484165.53589651</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>55081768.08074339</v>
+        <v>22952511.33645719</v>
       </c>
       <c r="B102">
-        <v>-209747912.1241483</v>
+        <v>-17916183.44441308</v>
       </c>
       <c r="C102">
-        <v>319911448.2856351</v>
+        <v>63821206.11732747</v>
       </c>
       <c r="D102">
-        <v>-349940276.4425079</v>
+        <v>-39550763.61496972</v>
       </c>
       <c r="E102">
-        <v>460103812.6039947</v>
+        <v>85455786.28788412</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>77440787.50495787</v>
+        <v>22900449.6971965</v>
       </c>
       <c r="B103">
-        <v>-188389954.3820413</v>
+        <v>-17983724.3014346</v>
       </c>
       <c r="C103">
-        <v>343271529.391957</v>
+        <v>63784623.6958276</v>
       </c>
       <c r="D103">
-        <v>-329112248.7442486</v>
+        <v>-39626498.67489935</v>
       </c>
       <c r="E103">
-        <v>483993823.7541643</v>
+        <v>85427398.06929235</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>33629211.23179118</v>
+        <v>22848388.05755991</v>
       </c>
       <c r="B104">
-        <v>-233198836.6697732</v>
+        <v>-18051259.30027697</v>
       </c>
       <c r="C104">
-        <v>300457259.1333556</v>
+        <v>63748035.41539679</v>
       </c>
       <c r="D104">
-        <v>-374449072.9455252</v>
+        <v>-39702224.77531812</v>
       </c>
       <c r="E104">
-        <v>441707495.4091076</v>
+        <v>85399000.89043793</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>11777976.35386518</v>
+        <v>22796326.41761291</v>
       </c>
       <c r="B105">
-        <v>-256043663.8504444</v>
+        <v>-18118788.4475499</v>
       </c>
       <c r="C105">
-        <v>279599616.5581747</v>
+        <v>63711441.28277572</v>
       </c>
       <c r="D105">
-        <v>-397819876.1194561</v>
+        <v>-39777941.92636939</v>
       </c>
       <c r="E105">
-        <v>421375828.8271864</v>
+        <v>85370594.76159522</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>19918088.34561605</v>
+        <v>22744264.77740961</v>
       </c>
       <c r="B106">
-        <v>-248893471.6299434</v>
+        <v>-18186311.74985694</v>
       </c>
       <c r="C106">
-        <v>288729648.3211755</v>
+        <v>63674841.30467617</v>
       </c>
       <c r="D106">
-        <v>-391193715.7714765</v>
+        <v>-39853650.13818105</v>
       </c>
       <c r="E106">
-        <v>431029892.4627085</v>
+        <v>85342179.69300029</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>22216954.9230631</v>
+        <v>22692203.13699466</v>
       </c>
       <c r="B107">
-        <v>-247580892.7170932</v>
+        <v>-18253829.21379446</v>
       </c>
       <c r="C107">
-        <v>292014802.5632194</v>
+        <v>63638235.48778378</v>
       </c>
       <c r="D107">
-        <v>-390403246.0100282</v>
+        <v>-39929349.42086503</v>
       </c>
       <c r="E107">
-        <v>434837155.8561544</v>
+        <v>85313755.69485435</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>22940536.80573604</v>
+        <v>22640141.49640495</v>
       </c>
       <c r="B108">
-        <v>-247840006.0809864</v>
+        <v>-18321340.8459507</v>
       </c>
       <c r="C108">
-        <v>293721079.6924585</v>
+        <v>63601623.83876059</v>
       </c>
       <c r="D108">
-        <v>-391182566.8140917</v>
+        <v>-40005039.78451667</v>
       </c>
       <c r="E108">
-        <v>437063640.4255639</v>
+        <v>85285322.77732655</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>65762666.03321876</v>
+        <v>22588079.85567091</v>
       </c>
       <c r="B109">
-        <v>-205997018.6530776</v>
+        <v>-18388846.65290504</v>
       </c>
       <c r="C109">
-        <v>337522350.7195151</v>
+        <v>63565006.36424687</v>
       </c>
       <c r="D109">
-        <v>-349857905.7451434</v>
+        <v>-40080721.23921441</v>
       </c>
       <c r="E109">
-        <v>481383237.8115808</v>
+        <v>85256880.95055625</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>25308704.31338285</v>
+        <v>22536018.21481773</v>
       </c>
       <c r="B110">
-        <v>-249410118.0421631</v>
+        <v>-18456346.64122745</v>
       </c>
       <c r="C110">
-        <v>300027526.6689288</v>
+        <v>63528383.07086291</v>
       </c>
       <c r="D110">
-        <v>-394837477.9928398</v>
+        <v>-40156393.79501944</v>
       </c>
       <c r="E110">
-        <v>445454886.6196055</v>
+        <v>85228430.22465491</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>21514161.46900554</v>
+        <v>22483956.57386613</v>
       </c>
       <c r="B111">
-        <v>-254169815.5249162</v>
+        <v>-18523840.81747797</v>
       </c>
       <c r="C111">
-        <v>297198138.4629272</v>
+        <v>63491753.96521023</v>
       </c>
       <c r="D111">
-        <v>-400108097.4786782</v>
+        <v>-40232057.4619755</v>
       </c>
       <c r="E111">
-        <v>443136420.4166893</v>
+        <v>85199970.60970776</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>27667275.35320281</v>
+        <v>22431894.93283328</v>
       </c>
       <c r="B112">
-        <v>-248978489.0928705</v>
+        <v>-18591329.18820632</v>
       </c>
       <c r="C112">
-        <v>304313039.7992762</v>
+        <v>63455119.05387288</v>
       </c>
       <c r="D112">
-        <v>-395425910.5690025</v>
+        <v>-40307712.25010856</v>
       </c>
       <c r="E112">
-        <v>450760461.2754081</v>
+        <v>85171502.11577514</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>25274448.61559287</v>
+        <v>22379833.29173335</v>
       </c>
       <c r="B113">
-        <v>-252329771.0942657</v>
+        <v>-18658811.75995153</v>
       </c>
       <c r="C113">
-        <v>302878668.3254515</v>
+        <v>63418478.34341824</v>
       </c>
       <c r="D113">
-        <v>-399284568.1387987</v>
+        <v>-40383358.16942676</v>
       </c>
       <c r="E113">
-        <v>449833465.3699845</v>
+        <v>85143024.75289348</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>42287500.77305102</v>
+        <v>22327771.65057801</v>
       </c>
       <c r="B114">
-        <v>-236271876.4079849</v>
+        <v>-18726288.53924183</v>
       </c>
       <c r="C114">
-        <v>320846877.9540869</v>
+        <v>63381831.84039784</v>
       </c>
       <c r="D114">
-        <v>-383732303.2749648</v>
+        <v>-40458995.22992028</v>
       </c>
       <c r="E114">
-        <v>468307304.8210669</v>
+        <v>85114538.5310763</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>64646520.19726551</v>
+        <v>22275710.00937691</v>
       </c>
       <c r="B115">
-        <v>-214864750.4704014</v>
+        <v>-18793759.53259423</v>
       </c>
       <c r="C115">
-        <v>344157790.8649324</v>
+        <v>63345179.55134806</v>
       </c>
       <c r="D115">
-        <v>-362829079.3107811</v>
+        <v>-40534623.44156119</v>
       </c>
       <c r="E115">
-        <v>492122119.7053121</v>
+        <v>85086043.46031502</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>20834943.92409882</v>
+        <v>22223648.36813803</v>
       </c>
       <c r="B116">
-        <v>-259624989.479981</v>
+        <v>-18861224.74651452</v>
       </c>
       <c r="C116">
-        <v>301294877.3281786</v>
+        <v>63308521.48279058</v>
       </c>
       <c r="D116">
-        <v>-408091510.0379037</v>
+        <v>-40610242.81430343</v>
       </c>
       <c r="E116">
-        <v>449761397.8861014</v>
+        <v>85057539.55057949</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>-1016290.953827187</v>
+        <v>22171586.72686797</v>
       </c>
       <c r="B117">
-        <v>-282421689.0182355</v>
+        <v>-18928684.18749703</v>
       </c>
       <c r="C117">
-        <v>280389107.110581</v>
+        <v>63271857.64123298</v>
       </c>
       <c r="D117">
-        <v>-431388708.3344859</v>
+        <v>-40685853.35808273</v>
       </c>
       <c r="E117">
-        <v>429356126.4268315</v>
+        <v>85029026.81181867</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>7123821.037923686</v>
+        <v>22119525.08557214</v>
       </c>
       <c r="B118">
-        <v>-275223875.7377986</v>
+        <v>-18996137.86202463</v>
       </c>
       <c r="C118">
-        <v>289471517.813646</v>
+        <v>63235188.0331689</v>
       </c>
       <c r="D118">
-        <v>-424689717.8602052</v>
+        <v>-40761455.08281662</v>
       </c>
       <c r="E118">
-        <v>438937359.9360526</v>
+        <v>85000505.25396089</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>9422687.615370736</v>
+        <v>22067463.44425504</v>
       </c>
       <c r="B119">
-        <v>-273864173.5153961</v>
+        <v>-19063585.77656853</v>
       </c>
       <c r="C119">
-        <v>292709548.7461376</v>
+        <v>63198512.66507861</v>
       </c>
       <c r="D119">
-        <v>-423827179.2159762</v>
+        <v>-40837047.99840438</v>
       </c>
       <c r="E119">
-        <v>442672554.4467177</v>
+        <v>84971974.88691446</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>10146269.49804368</v>
+        <v>22015401.80292039</v>
       </c>
       <c r="B120">
-        <v>-274076652.702277</v>
+        <v>-19131027.93758828</v>
       </c>
       <c r="C120">
-        <v>294369191.6983643</v>
+        <v>63161831.54342905</v>
       </c>
       <c r="D120">
-        <v>-424535179.2009248</v>
+        <v>-40912632.11472699</v>
       </c>
       <c r="E120">
-        <v>444827718.1970121</v>
+        <v>84943435.72056776</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>52968398.7255264</v>
+        <v>21963340.16157122</v>
       </c>
       <c r="B121">
-        <v>-232187511.8196641</v>
+        <v>-19198464.35153179</v>
       </c>
       <c r="C121">
-        <v>338124309.2707169</v>
+        <v>63125144.67467423</v>
       </c>
       <c r="D121">
-        <v>-383139932.5141874</v>
+        <v>-40988207.44164728</v>
       </c>
       <c r="E121">
-        <v>489076729.9652402</v>
+        <v>84914887.76478972</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>12514437.00569049</v>
+        <v>21911278.52021007</v>
       </c>
       <c r="B122">
-        <v>-275462989.9820499</v>
+        <v>-19265895.02483516</v>
       </c>
       <c r="C122">
-        <v>300491863.993431</v>
+        <v>63088452.06525531</v>
       </c>
       <c r="D122">
-        <v>-427909031.2584438</v>
+        <v>-41063773.98900978</v>
       </c>
       <c r="E122">
-        <v>452937905.2698248</v>
+        <v>84886331.02942991</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>8719894.161313176</v>
+        <v>21859216.87883905</v>
       </c>
       <c r="B123">
-        <v>-280178396.3653817</v>
+        <v>-19333319.96392275</v>
       </c>
       <c r="C123">
-        <v>297618184.688008</v>
+        <v>63051753.72160085</v>
       </c>
       <c r="D123">
-        <v>-433111913.3531109</v>
+        <v>-41139331.76664079</v>
       </c>
       <c r="E123">
-        <v>450551701.6757372</v>
+        <v>84857765.52431887</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>14873008.04551045</v>
+        <v>21807155.23745987</v>
       </c>
       <c r="B124">
-        <v>-274943220.0784745</v>
+        <v>-19400739.17520715</v>
       </c>
       <c r="C124">
-        <v>304689236.1694955</v>
+        <v>63015049.65012688</v>
       </c>
       <c r="D124">
-        <v>-428362663.877584</v>
+        <v>-41214880.78434843</v>
       </c>
       <c r="E124">
-        <v>458108679.9686049</v>
+        <v>84829191.25926816</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>12480181.30790052</v>
+        <v>21755093.59607393</v>
       </c>
       <c r="B125">
-        <v>-278251086.1862939</v>
+        <v>-19468152.6650892</v>
       </c>
       <c r="C125">
-        <v>303211448.802095</v>
+        <v>62978339.85723705</v>
       </c>
       <c r="D125">
-        <v>-432154922.5680429</v>
+        <v>-41290421.0519227</v>
       </c>
       <c r="E125">
-        <v>457115285.183844</v>
+        <v>84800608.24407056</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>29493233.46535868</v>
+        <v>21703031.95468242</v>
       </c>
       <c r="B126">
-        <v>-262150202.4517695</v>
+        <v>-19535560.43995791</v>
       </c>
       <c r="C126">
-        <v>321136669.3824868</v>
+        <v>62941624.34932276</v>
       </c>
       <c r="D126">
-        <v>-416536911.6284737</v>
+        <v>-41365952.57913537</v>
       </c>
       <c r="E126">
-        <v>475523378.5591911</v>
+        <v>84772016.48850022</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>51852252.88957316</v>
+        <v>21650970.31328633</v>
       </c>
       <c r="B127">
-        <v>-240700507.3577285</v>
+        <v>-19602962.50619056</v>
       </c>
       <c r="C127">
-        <v>344405013.1368748</v>
+        <v>62904903.13276323</v>
       </c>
       <c r="D127">
-        <v>-395568583.7576253</v>
+        <v>-41441475.37574018</v>
       </c>
       <c r="E127">
-        <v>499273089.5367717</v>
+        <v>84743416.00231284</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>8040676.616406487</v>
+        <v>21598908.67188643</v>
       </c>
       <c r="B128">
-        <v>-285418590.30676</v>
+        <v>-19670358.8701527</v>
       </c>
       <c r="C128">
-        <v>301499943.539573</v>
+        <v>62868176.21392556</v>
       </c>
       <c r="D128">
-        <v>-440766542.3537579</v>
+        <v>-41516989.45147276</v>
       </c>
       <c r="E128">
-        <v>456847895.5865709</v>
+        <v>84714806.79524562</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>-13810558.26151954</v>
+        <v>21546847.03048339</v>
       </c>
       <c r="B129">
-        <v>-308173540.2375987</v>
+        <v>-19737749.53819805</v>
       </c>
       <c r="C129">
-        <v>280552423.7145596</v>
+        <v>62831443.59916484</v>
       </c>
       <c r="D129">
-        <v>-463999890.1357735</v>
+        <v>-41592494.81605071</v>
       </c>
       <c r="E129">
-        <v>436378773.6127344</v>
+        <v>84686188.8770175</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>-5670446.269768678</v>
+        <v>21494785.38907777</v>
       </c>
       <c r="B130">
-        <v>-300934377.3087911</v>
+        <v>-19805134.51666867</v>
       </c>
       <c r="C130">
-        <v>289593484.7692538</v>
+        <v>62794705.29482421</v>
       </c>
       <c r="D130">
-        <v>-457237660.8315005</v>
+        <v>-41667991.47917362</v>
       </c>
       <c r="E130">
-        <v>445896768.2919632</v>
+        <v>84657562.25732917</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>-3371579.692321613</v>
+        <v>21442723.74767002</v>
       </c>
       <c r="B131">
-        <v>-299533719.0474116</v>
+        <v>-19872513.81189488</v>
       </c>
       <c r="C131">
-        <v>292790559.6627684</v>
+        <v>62757961.30723493</v>
       </c>
       <c r="D131">
-        <v>-456312485.3308995</v>
+        <v>-41743479.45052314</v>
       </c>
       <c r="E131">
-        <v>449569325.9462563</v>
+        <v>84628926.94586319</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>-2647997.809648683</v>
+        <v>21390662.10626049</v>
       </c>
       <c r="B132">
-        <v>-299705629.5953864</v>
+        <v>-19939887.43019537</v>
       </c>
       <c r="C132">
-        <v>294409633.976089</v>
+        <v>62721211.64271636</v>
       </c>
       <c r="D132">
-        <v>-456958440.9367567</v>
+        <v>-41818958.73976304</v>
       </c>
       <c r="E132">
-        <v>451662445.3174593</v>
+        <v>84600282.95228402</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>40174131.41783405</v>
+        <v>21338600.46484952</v>
       </c>
       <c r="B133">
-        <v>-257776301.400979</v>
+        <v>-20007255.37787708</v>
       </c>
       <c r="C133">
-        <v>338124564.2366471</v>
+        <v>62684456.30757611</v>
       </c>
       <c r="D133">
-        <v>-415501733.060419</v>
+        <v>-41894429.35653915</v>
       </c>
       <c r="E133">
-        <v>495849995.8960871</v>
+        <v>84571630.28623818</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>-279830.3020018768</v>
+        <v>21286538.82343733</v>
       </c>
       <c r="B134">
-        <v>-300931731.2647944</v>
+        <v>-20074617.66123538</v>
       </c>
       <c r="C134">
-        <v>300372070.6607906</v>
+        <v>62647695.30811005</v>
       </c>
       <c r="D134">
-        <v>-460087233.7755913</v>
+        <v>-41969891.31047953</v>
       </c>
       <c r="E134">
-        <v>459527573.1715875</v>
+        <v>84542968.95735419</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>-4074373.146379174</v>
+        <v>21234477.18202417</v>
       </c>
       <c r="B135">
-        <v>-305608433.1915222</v>
+        <v>-20141974.28655399</v>
       </c>
       <c r="C135">
-        <v>297459686.8987639</v>
+        <v>62610928.65060232</v>
       </c>
       <c r="D135">
-        <v>-465230922.5119696</v>
+        <v>-42045344.61119439</v>
       </c>
       <c r="E135">
-        <v>457082176.2192113</v>
+        <v>84514298.97524272</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>2078740.737818087</v>
+        <v>21182415.54061016</v>
       </c>
       <c r="B136">
-        <v>-300334905.0886808</v>
+        <v>-20209325.26010506</v>
       </c>
       <c r="C136">
-        <v>304492386.5643169</v>
+        <v>62574156.34132539</v>
       </c>
       <c r="D136">
-        <v>-460423018.9955177</v>
+        <v>-42120789.26827627</v>
       </c>
       <c r="E136">
-        <v>464580500.4711538</v>
+        <v>84485620.3494966</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>-314085.9997918285</v>
+        <v>21130353.89919548</v>
       </c>
       <c r="B137">
-        <v>-303604766.6954608</v>
+        <v>-20276670.58814918</v>
       </c>
       <c r="C137">
-        <v>302976594.6958772</v>
+        <v>62537378.38654013</v>
       </c>
       <c r="D137">
-        <v>-464157154.817346</v>
+        <v>-42196225.29129998</v>
       </c>
       <c r="E137">
-        <v>463528982.8177624</v>
+        <v>84456933.08969092</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>16698966.15766631</v>
+        <v>21078292.25778025</v>
       </c>
       <c r="B138">
-        <v>-287466220.5610136</v>
+        <v>-20344010.27693534</v>
       </c>
       <c r="C138">
-        <v>320864152.8763462</v>
+        <v>62500594.79249585</v>
       </c>
       <c r="D138">
-        <v>-448481544.2076544</v>
+        <v>-42271652.68982262</v>
       </c>
       <c r="E138">
-        <v>481879476.5229871</v>
+        <v>84428237.20538312</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>39057985.58188081</v>
+        <v>21026230.61636455</v>
       </c>
       <c r="B139">
-        <v>-265979200.0633722</v>
+        <v>-20411344.33270112</v>
       </c>
       <c r="C139">
-        <v>344095171.2271338</v>
+        <v>62463805.56543023</v>
       </c>
       <c r="D139">
-        <v>-427456132.0580834</v>
+        <v>-42347071.47338376</v>
       </c>
       <c r="E139">
-        <v>505572103.221845</v>
+        <v>84399532.70611286</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>-4753590.691285892</v>
+        <v>20974168.97494847</v>
       </c>
       <c r="B140">
-        <v>-310660289.6064023</v>
+        <v>-20478672.76167259</v>
       </c>
       <c r="C140">
-        <v>301153108.2238305</v>
+        <v>62427010.71156952</v>
       </c>
       <c r="D140">
-        <v>-472597514.1220048</v>
+        <v>-42422481.65150538</v>
       </c>
       <c r="E140">
-        <v>463090332.7394329</v>
+        <v>84370819.60140231</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>-26604825.56921189</v>
+        <v>20922107.33353207</v>
       </c>
       <c r="B141">
-        <v>-333378573.2333672</v>
+        <v>-20545995.5700643</v>
       </c>
       <c r="C141">
-        <v>280168922.0949434</v>
+        <v>62390210.23712843</v>
       </c>
       <c r="D141">
-        <v>-495774785.6313437</v>
+        <v>-42497883.23369191</v>
       </c>
       <c r="E141">
-        <v>442565134.4929199</v>
+        <v>84342097.90075603</v>
       </c>
     </row>
   </sheetData>
